--- a/biology/Botanique/Luzerne_orbiculaire/Luzerne_orbiculaire.xlsx
+++ b/biology/Botanique/Luzerne_orbiculaire/Luzerne_orbiculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Medicago orbicularis
-La luzerne orbiculaire (Medicago orbicularis) est une plante herbacée annuelle de la famille des Fabaceae ; c'est l'une des nombreuses luzernes à fleurs jaunes qu'on rencontre dans les régions méditerranéennes (et jusqu'au centre et sud-ouest de la France). Elle pousse à proximité des cultures (oliviers notamment), et se distingue des autres luzernes par ses stipules profondément échancrées et par ses gousses de 15 mm[1], en forme de disque à 4-6 spirales aplaties ne portant pas d'épines.
+La luzerne orbiculaire (Medicago orbicularis) est une plante herbacée annuelle de la famille des Fabaceae ; c'est l'une des nombreuses luzernes à fleurs jaunes qu'on rencontre dans les régions méditerranéennes (et jusqu'au centre et sud-ouest de la France). Elle pousse à proximité des cultures (oliviers notamment), et se distingue des autres luzernes par ses stipules profondément échancrées et par ses gousses de 15 mm, en forme de disque à 4-6 spirales aplaties ne portant pas d'épines.
 Sous-espèces et variétés
 subsp. castellana
 subsp. orbicularis
